--- a/docs/Jeugdcuptour_2020.xlsx
+++ b/docs/Jeugdcuptour_2020.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\checkouts\pbo-jeugdcupranking\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{817B2D71-014E-4F74-9B0F-8F5E43B25F78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C7D244-490C-4537-A0B8-EE7ECB85F768}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AD1E0593-6693-4E08-865B-1A01202AD40A}"/>
+    <workbookView xWindow="29235" yWindow="1200" windowWidth="28800" windowHeight="15600" activeTab="1" xr2:uid="{AD1E0593-6693-4E08-865B-1A01202AD40A}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="12" r:id="rId1"/>
-    <sheet name="data" sheetId="3" r:id="rId2"/>
-    <sheet name="import" sheetId="21" r:id="rId3"/>
-    <sheet name="metadata" sheetId="14" r:id="rId4"/>
+    <sheet name="U13 differences" sheetId="22" r:id="rId2"/>
+    <sheet name="data" sheetId="3" r:id="rId3"/>
+    <sheet name="import" sheetId="21" r:id="rId4"/>
+    <sheet name="metadata" sheetId="14" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="519" r:id="rId5"/>
+    <pivotCache cacheId="18" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1458" uniqueCount="332">
   <si>
     <t>vblId</t>
   </si>
@@ -924,14 +925,122 @@
     <t>03 BC DENDERLEEUW 2020, 7 maart 2020</t>
   </si>
   <si>
-    <t>04 WIT-WIT RONSE 2020, 22/02/2020</t>
+    <t>02 WIT-WIT RONSE 2020, 22/02/2020</t>
+  </si>
+  <si>
+    <t>Senne Martens</t>
+  </si>
+  <si>
+    <t>Thomas Van Engelgom</t>
+  </si>
+  <si>
+    <t>Kas Bessems</t>
+  </si>
+  <si>
+    <t>Thomas Bruyland</t>
+  </si>
+  <si>
+    <t>Lukas Verlet</t>
+  </si>
+  <si>
+    <t>Emiel De Troyer</t>
+  </si>
+  <si>
+    <t>Leon De Clercq</t>
+  </si>
+  <si>
+    <t>Xander Vander Donckt</t>
+  </si>
+  <si>
+    <t>Jorbe De Pauw</t>
+  </si>
+  <si>
+    <t>Emile Martens Spanhove</t>
+  </si>
+  <si>
+    <t>Jens Casier</t>
+  </si>
+  <si>
+    <t>Maxime Trenson</t>
+  </si>
+  <si>
+    <t>Thijs Van Bockxlaer</t>
+  </si>
+  <si>
+    <t>Mats Temmerman</t>
+  </si>
+  <si>
+    <t>Gust Vertommen</t>
+  </si>
+  <si>
+    <t>Jarne Coppens</t>
+  </si>
+  <si>
+    <t>Jelte Vonckx</t>
+  </si>
+  <si>
+    <t>Jannes Slagmulder</t>
+  </si>
+  <si>
+    <t>Mathis Douchy</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Robin Van Cauwenberghe</t>
+  </si>
+  <si>
+    <t>Corneel Wieleman</t>
+  </si>
+  <si>
+    <t>Bas Aneca</t>
+  </si>
+  <si>
+    <t>Yorick De Craeye</t>
+  </si>
+  <si>
+    <t>Sander Vandendriessche</t>
+  </si>
+  <si>
+    <t>Lander Bogaert</t>
+  </si>
+  <si>
+    <t>Thomas Devloo</t>
+  </si>
+  <si>
+    <t>Ward Cluas</t>
+  </si>
+  <si>
+    <t>Iñaki Mahy</t>
+  </si>
+  <si>
+    <t>Jules Moerman</t>
+  </si>
+  <si>
+    <t>Félix Van Den Haute</t>
+  </si>
+  <si>
+    <t>Poule ranking issue: opgave en walkover</t>
+  </si>
+  <si>
+    <t>Verlier halve finale 60punten, SW correct</t>
+  </si>
+  <si>
+    <t>Vierde in poule, 55 punten</t>
+  </si>
+  <si>
+    <t>Vijfde in poule, 50 punten</t>
+  </si>
+  <si>
+    <t>Poule ranking issue: Sander wordt door SW als derde uit pouel uitgerekend maar speelt niet in afvalschema. Aparte category in ranking van die event, alles eronder schuift in plaatst op (dus 5punten minder)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -960,8 +1069,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -971,6 +1086,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1002,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90" wrapText="1"/>
@@ -1020,18 +1141,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="203">
     <dxf>
       <alignment textRotation="90" wrapText="1"/>
     </dxf>
@@ -1745,6 +1869,485 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <vertical style="thin">
+          <color auto="1"/>
+        </vertical>
+        <horizontal style="thin">
+          <color auto="1"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="90" wrapText="1"/>
     </dxf>
     <dxf>
       <border>
@@ -1782,128 +2385,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <vertical style="thin">
-          <color auto="1"/>
-        </vertical>
-        <horizontal style="thin">
-          <color auto="1"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="90" wrapText="1"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1918,7 +2399,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Dekeyser" refreshedDate="43921.963017245369" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="224" xr:uid="{9F30CD1E-7C51-40F0-891F-E9F0162E3CAC}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Thomas Dekeyser" refreshedDate="43922.903274999997" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="224" xr:uid="{9F30CD1E-7C51-40F0-891F-E9F0162E3CAC}">
   <cacheSource type="worksheet">
     <worksheetSource name="Data"/>
   </cacheSource>
@@ -2091,7 +2572,7 @@
     <cacheField name="tournament" numFmtId="0">
       <sharedItems containsBlank="1" count="10">
         <s v="01 VLABAD 2020, 25 jan 2020"/>
-        <s v="04 WIT-WIT RONSE 2020, 22/02/2020"/>
+        <s v="02 WIT-WIT RONSE 2020, 22/02/2020"/>
         <s v="03 BC DENDERLEEUW 2020, 7 maart 2020"/>
         <m u="1"/>
         <s v="WIT-WIT RONSE 2020, 22/02/2020" u="1"/>
@@ -2099,7 +2580,7 @@
         <s v="VLABAD 2020, 25 jan 2020" u="1"/>
         <s v="WitWit, 22 feb jan 2020 " u="1"/>
         <s v="Vlabad, 25 jan 2020 " u="1"/>
-        <s v="02 WIT-WIT RONSE 2020, 22/02/2020" u="1"/>
+        <s v="04 WIT-WIT RONSE 2020, 22/02/2020" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="point" numFmtId="0">
@@ -4594,7 +5075,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD89E809-D67E-4939-9123-674EF8CBDC3E}" name="PivotTable6" cacheId="519" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Totaal" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Lidnummer">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AD89E809-D67E-4939-9123-674EF8CBDC3E}" name="PivotTable6" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Totaal" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Lidnummer">
   <location ref="D6:H37" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0" sortType="descending">
@@ -4768,9 +5249,9 @@
     <pivotField axis="axisCol" showAll="0" sortType="ascending">
       <items count="11">
         <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
         <item m="1" x="9"/>
-        <item x="2"/>
-        <item x="1"/>
         <item m="1" x="5"/>
         <item m="1" x="6"/>
         <item m="1" x="8"/>
@@ -4896,10 +5377,10 @@
       <x/>
     </i>
     <i>
-      <x v="2"/>
+      <x v="1"/>
     </i>
     <i>
-      <x v="3"/>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -4913,76 +5394,76 @@
     <dataField name="Sum of point" fld="7" baseField="0" baseItem="2"/>
   </dataFields>
   <formats count="20">
-    <format dxfId="142">
+    <format dxfId="200">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="141">
+    <format dxfId="199">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="140">
+    <format dxfId="198">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="139">
+    <format dxfId="197">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="138">
+    <format dxfId="196">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="137">
+    <format dxfId="195">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="136">
+    <format dxfId="194">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="135">
+    <format dxfId="193">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="134">
+    <format dxfId="192">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="133">
+    <format dxfId="191">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="132">
+    <format dxfId="190">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="131">
+    <format dxfId="189">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="130">
+    <format dxfId="188">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="129">
+    <format dxfId="187">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="128">
+    <format dxfId="186">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="127">
+    <format dxfId="185">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="126">
+    <format dxfId="184">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="125">
+    <format dxfId="183">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="6" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="124">
+    <format dxfId="182">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="122">
+    <format dxfId="181">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -5019,7 +5500,7 @@
     <tableColumn id="6" xr3:uid="{22F712A0-44C3-43DB-8B91-CF56E649E160}" name="ageCategory"/>
     <tableColumn id="7" xr3:uid="{9AEF12E6-62AB-4C39-80FC-DCB39E2CC5E9}" name="tournament"/>
     <tableColumn id="8" xr3:uid="{1BA96F85-B7F8-4BC6-9C28-EA51D852405E}" name="point"/>
-    <tableColumn id="10" xr3:uid="{889F4284-4BB0-48F8-9DF9-DFC4C7FE341B}" name="ageCategoryWithHistoryLookup" dataDxfId="123">
+    <tableColumn id="10" xr3:uid="{889F4284-4BB0-48F8-9DF9-DFC4C7FE341B}" name="ageCategoryWithHistoryLookup" dataDxfId="180">
       <calculatedColumnFormula>IF(F2&lt;&gt;"Unknown",F2,IFERROR(VLOOKUP(A2,$A1:I$2,9,FALSE),"Unknown"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5326,8 +5807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82784925-4D40-4258-B640-D2D38950E105}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5336,21 +5817,21 @@
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
     <col min="9" max="12" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="str">
+      <c r="A1" s="13" t="str">
         <f ca="1">CONCATENATE(metadata!$B$1," / ",MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255))</f>
         <v>PBO JEUGDCUPTOUR 2020 / ALL</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D3" s="7" t="s">
@@ -5396,10 +5877,10 @@
         <v>293</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>295</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>146</v>
@@ -5414,7 +5895,7 @@
         <f>IF(D8&lt;&gt; "",1,"")</f>
         <v>1</v>
       </c>
-      <c r="B8" s="12" t="str">
+      <c r="B8" s="11" t="str">
         <f>IF(AND(D8&lt;&gt; "(blank)",D8&lt;&gt;""),CONCATENATE(VLOOKUP(D8,Data[#All],2,FALSE)," ",VLOOKUP(D8,Data[#All],3,FALSE)),"")</f>
         <v>Senne Martens</v>
       </c>
@@ -5429,10 +5910,10 @@
         <v>100</v>
       </c>
       <c r="F8" s="5">
+        <v>90</v>
+      </c>
+      <c r="G8" s="5">
         <v>100</v>
-      </c>
-      <c r="G8" s="5">
-        <v>90</v>
       </c>
       <c r="H8" s="5">
         <v>290</v>
@@ -5447,7 +5928,7 @@
         <f>IF(D9&lt;&gt; "",A8+1,"")</f>
         <v>2</v>
       </c>
-      <c r="B9" s="12" t="str">
+      <c r="B9" s="11" t="str">
         <f>IF(AND(D9&lt;&gt; "(blank)",D9&lt;&gt;""),CONCATENATE(VLOOKUP(D9,Data[#All],2,FALSE)," ",VLOOKUP(D9,Data[#All],3,FALSE)),"")</f>
         <v>Thomas Van Engelgom</v>
       </c>
@@ -5480,7 +5961,7 @@
         <f t="shared" ref="A10:A58" si="0">IF(D10&lt;&gt; "",A9+1,"")</f>
         <v>3</v>
       </c>
-      <c r="B10" s="12" t="str">
+      <c r="B10" s="11" t="str">
         <f>IF(AND(D10&lt;&gt; "(blank)",D10&lt;&gt;""),CONCATENATE(VLOOKUP(D10,Data[#All],2,FALSE)," ",VLOOKUP(D10,Data[#All],3,FALSE)),"")</f>
         <v>Kas Bessems</v>
       </c>
@@ -5495,10 +5976,10 @@
         <v>95</v>
       </c>
       <c r="F10" s="5">
+        <v>85</v>
+      </c>
+      <c r="G10" s="5">
         <v>80</v>
-      </c>
-      <c r="G10" s="5">
-        <v>85</v>
       </c>
       <c r="H10" s="5">
         <v>260</v>
@@ -5513,7 +5994,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="12" t="str">
+      <c r="B11" s="11" t="str">
         <f>IF(AND(D11&lt;&gt; "(blank)",D11&lt;&gt;""),CONCATENATE(VLOOKUP(D11,Data[#All],2,FALSE)," ",VLOOKUP(D11,Data[#All],3,FALSE)),"")</f>
         <v>Thomas Bruyland</v>
       </c>
@@ -5528,10 +6009,10 @@
         <v>70</v>
       </c>
       <c r="F11" s="5">
+        <v>75</v>
+      </c>
+      <c r="G11" s="5">
         <v>85</v>
-      </c>
-      <c r="G11" s="5">
-        <v>75</v>
       </c>
       <c r="H11" s="5">
         <v>230</v>
@@ -5546,7 +6027,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="12" t="str">
+      <c r="B12" s="11" t="str">
         <f>IF(AND(D12&lt;&gt; "(blank)",D12&lt;&gt;""),CONCATENATE(VLOOKUP(D12,Data[#All],2,FALSE)," ",VLOOKUP(D12,Data[#All],3,FALSE)),"")</f>
         <v>Lukas Verlet</v>
       </c>
@@ -5561,10 +6042,10 @@
         <v>55</v>
       </c>
       <c r="F12" s="5">
+        <v>65</v>
+      </c>
+      <c r="G12" s="5">
         <v>70</v>
-      </c>
-      <c r="G12" s="5">
-        <v>65</v>
       </c>
       <c r="H12" s="5">
         <v>190</v>
@@ -5579,7 +6060,7 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="12" t="str">
+      <c r="B13" s="11" t="str">
         <f>IF(AND(D13&lt;&gt; "(blank)",D13&lt;&gt;""),CONCATENATE(VLOOKUP(D13,Data[#All],2,FALSE)," ",VLOOKUP(D13,Data[#All],3,FALSE)),"")</f>
         <v>Emiel De Troyer</v>
       </c>
@@ -5593,10 +6074,10 @@
       <c r="E13" s="5">
         <v>85</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5">
+      <c r="F13" s="5">
         <v>100</v>
       </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="5">
         <v>185</v>
       </c>
@@ -5610,7 +6091,7 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="12" t="str">
+      <c r="B14" s="11" t="str">
         <f>IF(AND(D14&lt;&gt; "(blank)",D14&lt;&gt;""),CONCATENATE(VLOOKUP(D14,Data[#All],2,FALSE)," ",VLOOKUP(D14,Data[#All],3,FALSE)),"")</f>
         <v>Leon De Clercq</v>
       </c>
@@ -5625,10 +6106,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="5">
+        <v>70</v>
+      </c>
+      <c r="G14" s="5">
         <v>97</v>
-      </c>
-      <c r="G14" s="5">
-        <v>70</v>
       </c>
       <c r="H14" s="5">
         <v>167</v>
@@ -5648,7 +6129,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="12" t="str">
+      <c r="B15" s="11" t="str">
         <f>IF(AND(D15&lt;&gt; "(blank)",D15&lt;&gt;""),CONCATENATE(VLOOKUP(D15,Data[#All],2,FALSE)," ",VLOOKUP(D15,Data[#All],3,FALSE)),"")</f>
         <v>Xander Vander Donckt</v>
       </c>
@@ -5663,10 +6144,10 @@
         <v>80</v>
       </c>
       <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
         <v>75</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
       </c>
       <c r="H15" s="5">
         <v>155</v>
@@ -5686,7 +6167,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="12" t="str">
+      <c r="B16" s="11" t="str">
         <f>IF(AND(D16&lt;&gt; "(blank)",D16&lt;&gt;""),CONCATENATE(VLOOKUP(D16,Data[#All],2,FALSE)," ",VLOOKUP(D16,Data[#All],3,FALSE)),"")</f>
         <v>Jorbe De Pauw</v>
       </c>
@@ -5700,10 +6181,10 @@
       <c r="E16" s="5">
         <v>75</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
+      <c r="F16" s="5">
         <v>80</v>
       </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="5">
         <v>155</v>
       </c>
@@ -5722,7 +6203,7 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="12" t="str">
+      <c r="B17" s="11" t="str">
         <f>IF(AND(D17&lt;&gt; "(blank)",D17&lt;&gt;""),CONCATENATE(VLOOKUP(D17,Data[#All],2,FALSE)," ",VLOOKUP(D17,Data[#All],3,FALSE)),"")</f>
         <v>Emile Martens Spanhove</v>
       </c>
@@ -5736,10 +6217,10 @@
       <c r="E17" s="5">
         <v>65</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5">
+      <c r="F17" s="5">
         <v>75</v>
       </c>
+      <c r="G17" s="5"/>
       <c r="H17" s="5">
         <v>140</v>
       </c>
@@ -5758,7 +6239,7 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="12" t="str">
+      <c r="B18" s="11" t="str">
         <f>IF(AND(D18&lt;&gt; "(blank)",D18&lt;&gt;""),CONCATENATE(VLOOKUP(D18,Data[#All],2,FALSE)," ",VLOOKUP(D18,Data[#All],3,FALSE)),"")</f>
         <v>Jens Casier</v>
       </c>
@@ -5772,10 +6253,10 @@
       <c r="E18" s="5">
         <v>50</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
         <v>65</v>
       </c>
-      <c r="G18" s="5"/>
       <c r="H18" s="5">
         <v>115</v>
       </c>
@@ -5794,7 +6275,7 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="12" t="str">
+      <c r="B19" s="11" t="str">
         <f>IF(AND(D19&lt;&gt; "(blank)",D19&lt;&gt;""),CONCATENATE(VLOOKUP(D19,Data[#All],2,FALSE)," ",VLOOKUP(D19,Data[#All],3,FALSE)),"")</f>
         <v>Maxime Trenson</v>
       </c>
@@ -5808,10 +6289,10 @@
       <c r="E19" s="5">
         <v>60</v>
       </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5">
+      <c r="F19" s="5">
         <v>45</v>
       </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="5">
         <v>105</v>
       </c>
@@ -5830,7 +6311,7 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="12" t="str">
+      <c r="B20" s="11" t="str">
         <f>IF(AND(D20&lt;&gt; "(blank)",D20&lt;&gt;""),CONCATENATE(VLOOKUP(D20,Data[#All],2,FALSE)," ",VLOOKUP(D20,Data[#All],3,FALSE)),"")</f>
         <v>Thijs Van Bockxlaer</v>
       </c>
@@ -5842,10 +6323,10 @@
         <v>50463500</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
+      <c r="F20" s="5">
         <v>95</v>
       </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="5">
         <v>95</v>
       </c>
@@ -5864,7 +6345,7 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="12" t="str">
+      <c r="B21" s="11" t="str">
         <f>IF(AND(D21&lt;&gt; "(blank)",D21&lt;&gt;""),CONCATENATE(VLOOKUP(D21,Data[#All],2,FALSE)," ",VLOOKUP(D21,Data[#All],3,FALSE)),"")</f>
         <v>Mats Temmerman</v>
       </c>
@@ -5876,10 +6357,10 @@
         <v>50479342</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <v>95</v>
       </c>
-      <c r="G21" s="5"/>
       <c r="H21" s="5">
         <v>95</v>
       </c>
@@ -5898,7 +6379,7 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="12" t="str">
+      <c r="B22" s="14" t="str">
         <f>IF(AND(D22&lt;&gt; "(blank)",D22&lt;&gt;""),CONCATENATE(VLOOKUP(D22,Data[#All],2,FALSE)," ",VLOOKUP(D22,Data[#All],3,FALSE)),"")</f>
         <v>Gust Vertommen</v>
       </c>
@@ -5910,10 +6391,10 @@
         <v>50905775</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="5">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
         <v>92</v>
       </c>
-      <c r="G22" s="5"/>
       <c r="H22" s="5">
         <v>92</v>
       </c>
@@ -5932,7 +6413,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B23" s="12" t="str">
+      <c r="B23" s="11" t="str">
         <f>IF(AND(D23&lt;&gt; "(blank)",D23&lt;&gt;""),CONCATENATE(VLOOKUP(D23,Data[#All],2,FALSE)," ",VLOOKUP(D23,Data[#All],3,FALSE)),"")</f>
         <v>Jarne Coppens</v>
       </c>
@@ -5944,10 +6425,10 @@
         <v>50795708</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5">
+      <c r="F23" s="5"/>
+      <c r="G23" s="5">
         <v>87</v>
       </c>
-      <c r="G23" s="5"/>
       <c r="H23" s="5">
         <v>87</v>
       </c>
@@ -5966,7 +6447,7 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B24" s="12" t="str">
+      <c r="B24" s="11" t="str">
         <f>IF(AND(D24&lt;&gt; "(blank)",D24&lt;&gt;""),CONCATENATE(VLOOKUP(D24,Data[#All],2,FALSE)," ",VLOOKUP(D24,Data[#All],3,FALSE)),"")</f>
         <v>Jelte Vonckx</v>
       </c>
@@ -5978,10 +6459,10 @@
         <v>50902997</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="5">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
         <v>82</v>
       </c>
-      <c r="G24" s="5"/>
       <c r="H24" s="5">
         <v>82</v>
       </c>
@@ -6000,7 +6481,7 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B25" s="12" t="str">
+      <c r="B25" s="11" t="str">
         <f>IF(AND(D25&lt;&gt; "(blank)",D25&lt;&gt;""),CONCATENATE(VLOOKUP(D25,Data[#All],2,FALSE)," ",VLOOKUP(D25,Data[#All],3,FALSE)),"")</f>
         <v>Jannes Slagmulder</v>
       </c>
@@ -6012,10 +6493,10 @@
         <v>50532502</v>
       </c>
       <c r="E25" s="5"/>
-      <c r="F25" s="5">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5">
         <v>77</v>
       </c>
-      <c r="G25" s="5"/>
       <c r="H25" s="5">
         <v>77</v>
       </c>
@@ -6034,7 +6515,7 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B26" s="12" t="str">
+      <c r="B26" s="11" t="str">
         <f>IF(AND(D26&lt;&gt; "(blank)",D26&lt;&gt;""),CONCATENATE(VLOOKUP(D26,Data[#All],2,FALSE)," ",VLOOKUP(D26,Data[#All],3,FALSE)),"")</f>
         <v>Mathis Douchy</v>
       </c>
@@ -6046,10 +6527,10 @@
         <v>50860321</v>
       </c>
       <c r="E26" s="5"/>
-      <c r="F26" s="5">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
         <v>72</v>
       </c>
-      <c r="G26" s="5"/>
       <c r="H26" s="5">
         <v>72</v>
       </c>
@@ -6068,7 +6549,7 @@
         <f>IF(D27&lt;&gt; "",A26+1,"")</f>
         <v>20</v>
       </c>
-      <c r="B27" s="12" t="str">
+      <c r="B27" s="11" t="str">
         <f>IF(AND(D27&lt;&gt; "(blank)",D27&lt;&gt;""),CONCATENATE(VLOOKUP(D27,Data[#All],2,FALSE)," ",VLOOKUP(D27,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6080,10 +6561,10 @@
         <v>237</v>
       </c>
       <c r="E27" s="5"/>
-      <c r="F27" s="5">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5">
         <v>67</v>
       </c>
-      <c r="G27" s="5"/>
       <c r="H27" s="5">
         <v>67</v>
       </c>
@@ -6102,7 +6583,7 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B28" s="12" t="str">
+      <c r="B28" s="11" t="str">
         <f>IF(AND(D28&lt;&gt; "(blank)",D28&lt;&gt;""),CONCATENATE(VLOOKUP(D28,Data[#All],2,FALSE)," ",VLOOKUP(D28,Data[#All],3,FALSE)),"")</f>
         <v>Robin Van Cauwenberghe</v>
       </c>
@@ -6114,10 +6595,10 @@
         <v>50299891</v>
       </c>
       <c r="E28" s="5"/>
-      <c r="F28" s="5">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5">
         <v>62</v>
       </c>
-      <c r="G28" s="5"/>
       <c r="H28" s="5">
         <v>62</v>
       </c>
@@ -6136,7 +6617,7 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B29" s="12" t="str">
+      <c r="B29" s="11" t="str">
         <f>IF(AND(D29&lt;&gt; "(blank)",D29&lt;&gt;""),CONCATENATE(VLOOKUP(D29,Data[#All],2,FALSE)," ",VLOOKUP(D29,Data[#All],3,FALSE)),"")</f>
         <v>Corneel Wieleman</v>
       </c>
@@ -6148,10 +6629,10 @@
         <v>51410125</v>
       </c>
       <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5">
+      <c r="F29" s="5">
         <v>60</v>
       </c>
+      <c r="G29" s="5"/>
       <c r="H29" s="5">
         <v>60</v>
       </c>
@@ -6170,7 +6651,7 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B30" s="12" t="str">
+      <c r="B30" s="11" t="str">
         <f>IF(AND(D30&lt;&gt; "(blank)",D30&lt;&gt;""),CONCATENATE(VLOOKUP(D30,Data[#All],2,FALSE)," ",VLOOKUP(D30,Data[#All],3,FALSE)),"")</f>
         <v>Bas Aneca</v>
       </c>
@@ -6182,10 +6663,10 @@
         <v>50271180</v>
       </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5">
+      <c r="F30" s="5">
         <v>60</v>
       </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="5">
         <v>60</v>
       </c>
@@ -6204,7 +6685,7 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B31" s="12" t="str">
+      <c r="B31" s="11" t="str">
         <f>IF(AND(D31&lt;&gt; "(blank)",D31&lt;&gt;""),CONCATENATE(VLOOKUP(D31,Data[#All],2,FALSE)," ",VLOOKUP(D31,Data[#All],3,FALSE)),"")</f>
         <v>Yorick De Craeye</v>
       </c>
@@ -6216,10 +6697,10 @@
         <v>51768127</v>
       </c>
       <c r="E31" s="5"/>
-      <c r="F31" s="5">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5">
         <v>57</v>
       </c>
-      <c r="G31" s="5"/>
       <c r="H31" s="5">
         <v>57</v>
       </c>
@@ -6238,7 +6719,7 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B32" s="12" t="str">
+      <c r="B32" s="11" t="str">
         <f>IF(AND(D32&lt;&gt; "(blank)",D32&lt;&gt;""),CONCATENATE(VLOOKUP(D32,Data[#All],2,FALSE)," ",VLOOKUP(D32,Data[#All],3,FALSE)),"")</f>
         <v>Sander Vandendriessche</v>
       </c>
@@ -6250,10 +6731,10 @@
         <v>50566296</v>
       </c>
       <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5">
+      <c r="F32" s="5">
         <v>55</v>
       </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="5">
         <v>55</v>
       </c>
@@ -6272,7 +6753,7 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B33" s="12" t="str">
+      <c r="B33" s="11" t="str">
         <f>IF(AND(D33&lt;&gt; "(blank)",D33&lt;&gt;""),CONCATENATE(VLOOKUP(D33,Data[#All],2,FALSE)," ",VLOOKUP(D33,Data[#All],3,FALSE)),"")</f>
         <v>Lander Bogaert</v>
       </c>
@@ -6284,10 +6765,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5">
+      <c r="F33" s="5">
         <v>50</v>
       </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="5">
         <v>50</v>
       </c>
@@ -6306,7 +6787,7 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B34" s="12" t="str">
+      <c r="B34" s="11" t="str">
         <f>IF(AND(D34&lt;&gt; "(blank)",D34&lt;&gt;""),CONCATENATE(VLOOKUP(D34,Data[#All],2,FALSE)," ",VLOOKUP(D34,Data[#All],3,FALSE)),"")</f>
         <v>Thomas Devloo</v>
       </c>
@@ -6318,10 +6799,10 @@
         <v>50790927</v>
       </c>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5">
+      <c r="F34" s="5">
         <v>50</v>
       </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="5">
         <v>50</v>
       </c>
@@ -6340,7 +6821,7 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B35" s="12" t="str">
+      <c r="B35" s="11" t="str">
         <f>IF(AND(D35&lt;&gt; "(blank)",D35&lt;&gt;""),CONCATENATE(VLOOKUP(D35,Data[#All],2,FALSE)," ",VLOOKUP(D35,Data[#All],3,FALSE)),"")</f>
         <v>Iñaki Mahy</v>
       </c>
@@ -6352,10 +6833,10 @@
         <v>51200414</v>
       </c>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5">
+      <c r="F35" s="5">
         <v>45</v>
       </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="5">
         <v>45</v>
       </c>
@@ -6374,7 +6855,7 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B36" s="12" t="str">
+      <c r="B36" s="11" t="str">
         <f>IF(AND(D36&lt;&gt; "(blank)",D36&lt;&gt;""),CONCATENATE(VLOOKUP(D36,Data[#All],2,FALSE)," ",VLOOKUP(D36,Data[#All],3,FALSE)),"")</f>
         <v>Jules Moerman</v>
       </c>
@@ -6386,10 +6867,10 @@
         <v>51742527</v>
       </c>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5">
+      <c r="F36" s="5">
         <v>45</v>
       </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="5">
         <v>45</v>
       </c>
@@ -6399,7 +6880,7 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B37" s="12" t="str">
+      <c r="B37" s="11" t="str">
         <f>IF(AND(D37&lt;&gt; "(blank)",D37&lt;&gt;""),CONCATENATE(VLOOKUP(D37,Data[#All],2,FALSE)," ",VLOOKUP(D37,Data[#All],3,FALSE)),"")</f>
         <v>Félix Van Den Haute</v>
       </c>
@@ -6424,7 +6905,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B38" s="12" t="str">
+      <c r="B38" s="11" t="str">
         <f>IF(AND(D38&lt;&gt; "(blank)",D38&lt;&gt;""),CONCATENATE(VLOOKUP(D38,Data[#All],2,FALSE)," ",VLOOKUP(D38,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6438,7 +6919,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B39" s="12" t="str">
+      <c r="B39" s="11" t="str">
         <f>IF(AND(D39&lt;&gt; "(blank)",D39&lt;&gt;""),CONCATENATE(VLOOKUP(D39,Data[#All],2,FALSE)," ",VLOOKUP(D39,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6452,7 +6933,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B40" s="12" t="str">
+      <c r="B40" s="11" t="str">
         <f>IF(AND(D40&lt;&gt; "(blank)",D40&lt;&gt;""),CONCATENATE(VLOOKUP(D40,Data[#All],2,FALSE)," ",VLOOKUP(D40,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6466,7 +6947,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B41" s="12" t="str">
+      <c r="B41" s="11" t="str">
         <f>IF(AND(D41&lt;&gt; "(blank)",D41&lt;&gt;""),CONCATENATE(VLOOKUP(D41,Data[#All],2,FALSE)," ",VLOOKUP(D41,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6480,7 +6961,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B42" s="12" t="str">
+      <c r="B42" s="11" t="str">
         <f>IF(AND(D42&lt;&gt; "(blank)",D42&lt;&gt;""),CONCATENATE(VLOOKUP(D42,Data[#All],2,FALSE)," ",VLOOKUP(D42,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6494,7 +6975,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B43" s="12" t="str">
+      <c r="B43" s="11" t="str">
         <f>IF(AND(D43&lt;&gt; "(blank)",D43&lt;&gt;""),CONCATENATE(VLOOKUP(D43,Data[#All],2,FALSE)," ",VLOOKUP(D43,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6508,7 +6989,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B44" s="12" t="str">
+      <c r="B44" s="11" t="str">
         <f>IF(AND(D44&lt;&gt; "(blank)",D44&lt;&gt;""),CONCATENATE(VLOOKUP(D44,Data[#All],2,FALSE)," ",VLOOKUP(D44,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6522,7 +7003,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B45" s="12" t="str">
+      <c r="B45" s="11" t="str">
         <f>IF(AND(D45&lt;&gt; "(blank)",D45&lt;&gt;""),CONCATENATE(VLOOKUP(D45,Data[#All],2,FALSE)," ",VLOOKUP(D45,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6536,7 +7017,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B46" s="12" t="str">
+      <c r="B46" s="11" t="str">
         <f>IF(AND(D46&lt;&gt; "(blank)",D46&lt;&gt;""),CONCATENATE(VLOOKUP(D46,Data[#All],2,FALSE)," ",VLOOKUP(D46,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6550,7 +7031,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B47" s="12" t="str">
+      <c r="B47" s="11" t="str">
         <f>IF(AND(D47&lt;&gt; "(blank)",D47&lt;&gt;""),CONCATENATE(VLOOKUP(D47,Data[#All],2,FALSE)," ",VLOOKUP(D47,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6564,7 +7045,7 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B48" s="12" t="str">
+      <c r="B48" s="11" t="str">
         <f>IF(AND(D48&lt;&gt; "(blank)",D48&lt;&gt;""),CONCATENATE(VLOOKUP(D48,Data[#All],2,FALSE)," ",VLOOKUP(D48,Data[#All],3,FALSE)),"")</f>
         <v/>
       </c>
@@ -6678,12 +7159,12 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="A7:C8 A10:A58 A9:B52 C9:C58">
-    <cfRule type="notContainsBlanks" dxfId="120" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="202" priority="2">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:A58">
-    <cfRule type="notContainsBlanks" dxfId="121" priority="1">
+    <cfRule type="notContainsBlanks" dxfId="201" priority="1">
       <formula>LEN(TRIM(A7))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6693,11 +7174,621 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F097809-90E8-42E1-9DAB-940F48955C3A}">
+  <dimension ref="A1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1">
+        <v>50617117</v>
+      </c>
+      <c r="D1">
+        <v>100</v>
+      </c>
+      <c r="E1">
+        <v>90</v>
+      </c>
+      <c r="F1">
+        <v>100</v>
+      </c>
+      <c r="G1">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>50257390</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>90</v>
+      </c>
+      <c r="F2">
+        <v>90</v>
+      </c>
+      <c r="G2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>50397737</v>
+      </c>
+      <c r="D3">
+        <v>95</v>
+      </c>
+      <c r="E3">
+        <v>85</v>
+      </c>
+      <c r="F3">
+        <v>80</v>
+      </c>
+      <c r="G3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4">
+        <v>50489526</v>
+      </c>
+      <c r="D4">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>75</v>
+      </c>
+      <c r="F4">
+        <v>85</v>
+      </c>
+      <c r="G4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>50161466</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>65</v>
+      </c>
+      <c r="F5">
+        <v>70</v>
+      </c>
+      <c r="G5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6">
+        <v>50486993</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>50139258</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>97</v>
+      </c>
+      <c r="G7">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>50142666</v>
+      </c>
+      <c r="D8">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>75</v>
+      </c>
+      <c r="G8">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>50725475</v>
+      </c>
+      <c r="D9">
+        <v>75</v>
+      </c>
+      <c r="E9">
+        <v>80</v>
+      </c>
+      <c r="G9">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10">
+        <v>50232908</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>75</v>
+      </c>
+      <c r="G10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>50852450</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>65</v>
+      </c>
+      <c r="G11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>307</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>51901021</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+      <c r="E12" s="15">
+        <v>45</v>
+      </c>
+      <c r="G12" s="15">
+        <v>105</v>
+      </c>
+      <c r="H12" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>50463500</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+      <c r="G13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14">
+        <v>50479342</v>
+      </c>
+      <c r="F14">
+        <v>95</v>
+      </c>
+      <c r="G14">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>310</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>50905775</v>
+      </c>
+      <c r="F15">
+        <v>92</v>
+      </c>
+      <c r="G15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16">
+        <v>50795708</v>
+      </c>
+      <c r="F16">
+        <v>87</v>
+      </c>
+      <c r="G16">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>312</v>
+      </c>
+      <c r="B17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>50902997</v>
+      </c>
+      <c r="F17">
+        <v>82</v>
+      </c>
+      <c r="G17">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>50532502</v>
+      </c>
+      <c r="F18">
+        <v>77</v>
+      </c>
+      <c r="G18">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>314</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>50860321</v>
+      </c>
+      <c r="F19">
+        <v>72</v>
+      </c>
+      <c r="G19">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20" t="s">
+        <v>315</v>
+      </c>
+      <c r="C20" t="s">
+        <v>237</v>
+      </c>
+      <c r="F20">
+        <v>67</v>
+      </c>
+      <c r="G20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21">
+        <v>50299891</v>
+      </c>
+      <c r="F21">
+        <v>62</v>
+      </c>
+      <c r="G21">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>317</v>
+      </c>
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22">
+        <v>51410125</v>
+      </c>
+      <c r="E22" s="15">
+        <v>60</v>
+      </c>
+      <c r="G22">
+        <v>60</v>
+      </c>
+      <c r="H22" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23" t="s">
+        <v>244</v>
+      </c>
+      <c r="C23">
+        <v>50271180</v>
+      </c>
+      <c r="E23" s="16">
+        <v>60</v>
+      </c>
+      <c r="G23">
+        <v>60</v>
+      </c>
+      <c r="H23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>319</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24">
+        <v>51768127</v>
+      </c>
+      <c r="F24">
+        <v>57</v>
+      </c>
+      <c r="G24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>320</v>
+      </c>
+      <c r="B25" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25">
+        <v>50566296</v>
+      </c>
+      <c r="E25">
+        <v>55</v>
+      </c>
+      <c r="G25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>321</v>
+      </c>
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>50</v>
+      </c>
+      <c r="G26">
+        <v>50</v>
+      </c>
+      <c r="H26" t="s">
+        <v>329</v>
+      </c>
+      <c r="K26" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>322</v>
+      </c>
+      <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27">
+        <v>50790927</v>
+      </c>
+      <c r="E27" s="15">
+        <v>50</v>
+      </c>
+      <c r="G27">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C28">
+        <v>51200414</v>
+      </c>
+      <c r="E28" s="15">
+        <v>45</v>
+      </c>
+      <c r="G28">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>51742527</v>
+      </c>
+      <c r="E29" s="15">
+        <v>45</v>
+      </c>
+      <c r="G29">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>51826542</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4954F3-ED6B-476B-AA8B-1757396BF074}">
   <dimension ref="A1:I225"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6760,7 +7851,7 @@
       <c r="F2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H2">
@@ -6790,7 +7881,7 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H3">
@@ -6820,7 +7911,7 @@
       <c r="F4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H4">
@@ -6850,7 +7941,7 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H5">
@@ -6880,7 +7971,7 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H6">
@@ -6910,7 +8001,7 @@
       <c r="F7" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H7">
@@ -6940,7 +8031,7 @@
       <c r="F8" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H8">
@@ -6970,7 +8061,7 @@
       <c r="F9" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H9">
@@ -7000,7 +8091,7 @@
       <c r="F10" t="s">
         <v>149</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H10">
@@ -7030,7 +8121,7 @@
       <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H11">
@@ -7060,7 +8151,7 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H12">
@@ -7090,7 +8181,7 @@
       <c r="F13" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H13">
@@ -7120,7 +8211,7 @@
       <c r="F14" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H14">
@@ -7150,7 +8241,7 @@
       <c r="F15" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H15">
@@ -7180,7 +8271,7 @@
       <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H16">
@@ -7210,7 +8301,7 @@
       <c r="F17" t="s">
         <v>149</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H17">
@@ -7240,7 +8331,7 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H18">
@@ -7270,7 +8361,7 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H19">
@@ -7300,7 +8391,7 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H20">
@@ -7330,7 +8421,7 @@
       <c r="F21" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H21">
@@ -7360,7 +8451,7 @@
       <c r="F22" t="s">
         <v>149</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H22">
@@ -7390,7 +8481,7 @@
       <c r="F23" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H23">
@@ -7420,7 +8511,7 @@
       <c r="F24" t="s">
         <v>64</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H24">
@@ -7450,7 +8541,7 @@
       <c r="F25" t="s">
         <v>149</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="G25" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H25">
@@ -7480,7 +8571,7 @@
       <c r="F26" t="s">
         <v>64</v>
       </c>
-      <c r="G26" s="11" t="s">
+      <c r="G26" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H26">
@@ -7510,7 +8601,7 @@
       <c r="F27" t="s">
         <v>149</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H27">
@@ -7540,7 +8631,7 @@
       <c r="F28" t="s">
         <v>64</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H28">
@@ -7570,7 +8661,7 @@
       <c r="F29" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G29" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H29">
@@ -7600,7 +8691,7 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H30">
@@ -7630,7 +8721,7 @@
       <c r="F31" t="s">
         <v>149</v>
       </c>
-      <c r="G31" s="11" t="s">
+      <c r="G31" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H31">
@@ -7660,7 +8751,7 @@
       <c r="F32" t="s">
         <v>149</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H32">
@@ -7690,7 +8781,7 @@
       <c r="F33" t="s">
         <v>149</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H33">
@@ -7720,7 +8811,7 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H34">
@@ -7750,7 +8841,7 @@
       <c r="F35" t="s">
         <v>64</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H35">
@@ -7780,7 +8871,7 @@
       <c r="F36" t="s">
         <v>64</v>
       </c>
-      <c r="G36" s="11" t="s">
+      <c r="G36" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H36">
@@ -7810,7 +8901,7 @@
       <c r="F37" t="s">
         <v>149</v>
       </c>
-      <c r="G37" s="11" t="s">
+      <c r="G37" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H37">
@@ -7840,7 +8931,7 @@
       <c r="F38" t="s">
         <v>64</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G38" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H38">
@@ -7870,7 +8961,7 @@
       <c r="F39" t="s">
         <v>149</v>
       </c>
-      <c r="G39" s="11" t="s">
+      <c r="G39" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H39">
@@ -7900,7 +8991,7 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H40">
@@ -7930,7 +9021,7 @@
       <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="G41" s="11" t="s">
+      <c r="G41" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H41">
@@ -7960,7 +9051,7 @@
       <c r="F42" t="s">
         <v>149</v>
       </c>
-      <c r="G42" s="11" t="s">
+      <c r="G42" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H42">
@@ -7990,7 +9081,7 @@
       <c r="F43" t="s">
         <v>11</v>
       </c>
-      <c r="G43" s="11" t="s">
+      <c r="G43" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H43">
@@ -8020,7 +9111,7 @@
       <c r="F44" t="s">
         <v>149</v>
       </c>
-      <c r="G44" s="11" t="s">
+      <c r="G44" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H44">
@@ -8050,7 +9141,7 @@
       <c r="F45" t="s">
         <v>11</v>
       </c>
-      <c r="G45" s="11" t="s">
+      <c r="G45" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H45">
@@ -8080,7 +9171,7 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="11" t="s">
+      <c r="G46" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H46">
@@ -8110,7 +9201,7 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H47">
@@ -8140,7 +9231,7 @@
       <c r="F48" t="s">
         <v>64</v>
       </c>
-      <c r="G48" s="11" t="s">
+      <c r="G48" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H48">
@@ -8170,7 +9261,7 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="G49" s="11" t="s">
+      <c r="G49" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H49">
@@ -8200,7 +9291,7 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G50" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H50">
@@ -8230,7 +9321,7 @@
       <c r="F51" t="s">
         <v>149</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H51">
@@ -8260,7 +9351,7 @@
       <c r="F52" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="11" t="s">
+      <c r="G52" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H52">
@@ -8290,7 +9381,7 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" s="11" t="s">
+      <c r="G53" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H53">
@@ -8320,7 +9411,7 @@
       <c r="F54" t="s">
         <v>149</v>
       </c>
-      <c r="G54" s="11" t="s">
+      <c r="G54" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H54">
@@ -8350,7 +9441,7 @@
       <c r="F55" t="s">
         <v>149</v>
       </c>
-      <c r="G55" s="11" t="s">
+      <c r="G55" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H55">
@@ -8380,7 +9471,7 @@
       <c r="F56" t="s">
         <v>64</v>
       </c>
-      <c r="G56" s="11" t="s">
+      <c r="G56" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H56">
@@ -8410,7 +9501,7 @@
       <c r="F57" t="s">
         <v>64</v>
       </c>
-      <c r="G57" s="11" t="s">
+      <c r="G57" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H57">
@@ -8440,7 +9531,7 @@
       <c r="F58" t="s">
         <v>149</v>
       </c>
-      <c r="G58" s="11" t="s">
+      <c r="G58" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H58">
@@ -8470,7 +9561,7 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" s="11" t="s">
+      <c r="G59" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H59">
@@ -8500,7 +9591,7 @@
       <c r="F60" t="s">
         <v>64</v>
       </c>
-      <c r="G60" s="11" t="s">
+      <c r="G60" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H60">
@@ -8530,7 +9621,7 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H61">
@@ -8560,7 +9651,7 @@
       <c r="F62" t="s">
         <v>64</v>
       </c>
-      <c r="G62" s="11" t="s">
+      <c r="G62" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H62">
@@ -8590,7 +9681,7 @@
       <c r="F63" t="s">
         <v>67</v>
       </c>
-      <c r="G63" s="11" t="s">
+      <c r="G63" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H63">
@@ -8620,7 +9711,7 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="11" t="s">
+      <c r="G64" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H64">
@@ -8650,7 +9741,7 @@
       <c r="F65" t="s">
         <v>67</v>
       </c>
-      <c r="G65" s="11" t="s">
+      <c r="G65" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H65">
@@ -8680,7 +9771,7 @@
       <c r="F66" t="s">
         <v>149</v>
       </c>
-      <c r="G66" s="11" t="s">
+      <c r="G66" s="10" t="s">
         <v>293</v>
       </c>
       <c r="H66">
@@ -13453,7 +14544,7 @@
       <c r="H225">
         <v>65</v>
       </c>
-      <c r="I225" s="10" t="str">
+      <c r="I225" s="9" t="str">
         <f>IF(F225&lt;&gt;"Unknown",F225,IFERROR(VLOOKUP(A225,$A$2:I224,9,FALSE),"Unknown"))</f>
         <v>U13</v>
       </c>
@@ -13467,12 +14558,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD87A98-3EAF-499F-A62D-836E7E468AB7}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13508,7 +14599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCF9666-E553-4B5F-9432-96A156152597}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -13531,7 +14622,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>282</v>
       </c>
     </row>
@@ -13539,7 +14630,7 @@
       <c r="A4" t="s">
         <v>281</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>236</v>
       </c>
     </row>
@@ -13547,7 +14638,7 @@
       <c r="A5" t="s">
         <v>283</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>284</v>
       </c>
     </row>
@@ -13555,7 +14646,7 @@
       <c r="A6" t="s">
         <v>287</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>285</v>
       </c>
     </row>
@@ -13563,7 +14654,7 @@
       <c r="A7" t="s">
         <v>288</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>286</v>
       </c>
     </row>
@@ -13571,7 +14662,7 @@
       <c r="A8" t="s">
         <v>290</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>289</v>
       </c>
     </row>
@@ -13579,7 +14670,7 @@
       <c r="A9" t="s">
         <v>292</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>291</v>
       </c>
     </row>
